--- a/data/pca/factorExposure/factorExposure_2013-07-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002096436804131296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001421548809276034</v>
+      </c>
+      <c r="C2">
+        <v>0.0321016401064648</v>
+      </c>
+      <c r="D2">
+        <v>-0.0040304357362695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002819951825962129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006159732792045599</v>
+      </c>
+      <c r="C4">
+        <v>0.08325464909075864</v>
+      </c>
+      <c r="D4">
+        <v>-0.08074783870913954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003451386370887064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01356305485407604</v>
+      </c>
+      <c r="C6">
+        <v>0.1055143044490987</v>
+      </c>
+      <c r="D6">
+        <v>-0.04098944585119928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001305551499790879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004908221604093607</v>
+      </c>
+      <c r="C7">
+        <v>0.05161154493296505</v>
+      </c>
+      <c r="D7">
+        <v>-0.03915132161348685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002855862018402295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006067940779869737</v>
+      </c>
+      <c r="C8">
+        <v>0.03788113826124449</v>
+      </c>
+      <c r="D8">
+        <v>-0.03845589831141881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005858615593039081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004119636482173482</v>
+      </c>
+      <c r="C9">
+        <v>0.06732518317014485</v>
+      </c>
+      <c r="D9">
+        <v>-0.07062078412432897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004602101444466059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006223685035367093</v>
+      </c>
+      <c r="C10">
+        <v>0.08934865924117738</v>
+      </c>
+      <c r="D10">
+        <v>0.2168225996991564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005938406207168071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005073707050940609</v>
+      </c>
+      <c r="C11">
+        <v>0.07839622967315363</v>
+      </c>
+      <c r="D11">
+        <v>-0.06475820087983772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001001687508799359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003874871942950025</v>
+      </c>
+      <c r="C12">
+        <v>0.06233360473050094</v>
+      </c>
+      <c r="D12">
+        <v>-0.04642223275616999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002696841677176964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008427730068669904</v>
+      </c>
+      <c r="C13">
+        <v>0.06828469779699348</v>
+      </c>
+      <c r="D13">
+        <v>-0.07805601416005029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003834159224323485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001983798126409111</v>
+      </c>
+      <c r="C14">
+        <v>0.04734606129444258</v>
+      </c>
+      <c r="D14">
+        <v>-0.01560959342979731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003209321132188493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005921985189811275</v>
+      </c>
+      <c r="C15">
+        <v>0.03725316364645954</v>
+      </c>
+      <c r="D15">
+        <v>-0.04490159307982978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0036431575392815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005115279173874693</v>
+      </c>
+      <c r="C16">
+        <v>0.06377437861606948</v>
+      </c>
+      <c r="D16">
+        <v>-0.05007369595760485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001413638118923925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009327235077243127</v>
+      </c>
+      <c r="C20">
+        <v>0.06498023526002096</v>
+      </c>
+      <c r="D20">
+        <v>-0.05727689211474504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003127982853600804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009644462266319234</v>
+      </c>
+      <c r="C21">
+        <v>0.02611316699300807</v>
+      </c>
+      <c r="D21">
+        <v>-0.03896951390507977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01650544755715875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007565384609083624</v>
+      </c>
+      <c r="C22">
+        <v>0.08549030013870383</v>
+      </c>
+      <c r="D22">
+        <v>-0.1038795093572799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01676675762534852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007320447537979764</v>
+      </c>
+      <c r="C23">
+        <v>0.08808017969877213</v>
+      </c>
+      <c r="D23">
+        <v>-0.1010736012394522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004542358411905019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004667068315195597</v>
+      </c>
+      <c r="C24">
+        <v>0.07163585731345898</v>
+      </c>
+      <c r="D24">
+        <v>-0.05938894577681064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005634877434437536</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002989598439360196</v>
+      </c>
+      <c r="C25">
+        <v>0.07637773527246516</v>
+      </c>
+      <c r="D25">
+        <v>-0.06290401723443832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00705872301136528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003742196023990762</v>
+      </c>
+      <c r="C26">
+        <v>0.04356740639936545</v>
+      </c>
+      <c r="D26">
+        <v>-0.01859757467526261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005398815782686287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0003694958667462061</v>
+      </c>
+      <c r="C28">
+        <v>0.1383368859687335</v>
+      </c>
+      <c r="D28">
+        <v>0.3026290485056163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001609184330919065</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003533018342004167</v>
+      </c>
+      <c r="C29">
+        <v>0.05043094692668792</v>
+      </c>
+      <c r="D29">
+        <v>-0.02161236143459823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005671279821553682</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009299376764497422</v>
+      </c>
+      <c r="C30">
+        <v>0.1325094646050919</v>
+      </c>
+      <c r="D30">
+        <v>-0.1126642415851249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001714659784478005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006133116987185415</v>
+      </c>
+      <c r="C31">
+        <v>0.04661112353106685</v>
+      </c>
+      <c r="D31">
+        <v>-0.03618965996736773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004279156259673612</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003519024254827717</v>
+      </c>
+      <c r="C32">
+        <v>0.04089647331681988</v>
+      </c>
+      <c r="D32">
+        <v>-0.01672518272699671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004546938449225235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007972401705423673</v>
+      </c>
+      <c r="C33">
+        <v>0.08121245450509855</v>
+      </c>
+      <c r="D33">
+        <v>-0.07604843336260311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005980456215471544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003800099133815894</v>
+      </c>
+      <c r="C34">
+        <v>0.05597915094347935</v>
+      </c>
+      <c r="D34">
+        <v>-0.04334896338181118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004267587222296428</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005037271155863744</v>
+      </c>
+      <c r="C35">
+        <v>0.03908201595680599</v>
+      </c>
+      <c r="D35">
+        <v>-0.01944993210150658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005511490867346094</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001312148028167393</v>
+      </c>
+      <c r="C36">
+        <v>0.02723131699341201</v>
+      </c>
+      <c r="D36">
+        <v>-0.01645170189613291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00223198818683288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009183661202574571</v>
+      </c>
+      <c r="C38">
+        <v>0.03573285525988042</v>
+      </c>
+      <c r="D38">
+        <v>-0.03058072575568687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01569243219436436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001225901602143807</v>
+      </c>
+      <c r="C39">
+        <v>0.1106270546956524</v>
+      </c>
+      <c r="D39">
+        <v>-0.08577829607666448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008467988880193615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002652182107464292</v>
+      </c>
+      <c r="C40">
+        <v>0.08442519691718937</v>
+      </c>
+      <c r="D40">
+        <v>-0.03567737088765052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1.979712255254558e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007564537604902995</v>
+      </c>
+      <c r="C41">
+        <v>0.04153707224079489</v>
+      </c>
+      <c r="D41">
+        <v>-0.034709688664364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002088119684546979</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002943154774203146</v>
+      </c>
+      <c r="C43">
+        <v>0.05203405525354609</v>
+      </c>
+      <c r="D43">
+        <v>-0.02746830161819451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00523149052689305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003372817236634604</v>
+      </c>
+      <c r="C44">
+        <v>0.1046971793350498</v>
+      </c>
+      <c r="D44">
+        <v>-0.08193942824230907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002367930504176432</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00258818149039946</v>
+      </c>
+      <c r="C46">
+        <v>0.03385676600636684</v>
+      </c>
+      <c r="D46">
+        <v>-0.03380970910861038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002653545497511216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002887301936716967</v>
+      </c>
+      <c r="C47">
+        <v>0.04084356752454089</v>
+      </c>
+      <c r="D47">
+        <v>-0.02832493484296173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00367897708657103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006560647955054179</v>
+      </c>
+      <c r="C48">
+        <v>0.03248887180874595</v>
+      </c>
+      <c r="D48">
+        <v>-0.0222910705295927</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01641866475071153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01403466804320408</v>
+      </c>
+      <c r="C49">
+        <v>0.1644950768295904</v>
+      </c>
+      <c r="D49">
+        <v>-0.04423111485029276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003079593602031631</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003980811090716019</v>
+      </c>
+      <c r="C50">
+        <v>0.04304075525420088</v>
+      </c>
+      <c r="D50">
+        <v>-0.03817180684262435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002608681549720324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004104160425227217</v>
+      </c>
+      <c r="C51">
+        <v>0.02011388866814382</v>
+      </c>
+      <c r="D51">
+        <v>-0.03498098971965046</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001513561233532708</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02006686352571927</v>
+      </c>
+      <c r="C53">
+        <v>0.162447107239954</v>
+      </c>
+      <c r="D53">
+        <v>-0.05974466493404388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001348193117723856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008663036518580339</v>
+      </c>
+      <c r="C54">
+        <v>0.05423653823771914</v>
+      </c>
+      <c r="D54">
+        <v>-0.04203422801656376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006010091534355787</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009557005474201654</v>
+      </c>
+      <c r="C55">
+        <v>0.1031937444892123</v>
+      </c>
+      <c r="D55">
+        <v>-0.0568780214916843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001323328689030562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01889256820854494</v>
+      </c>
+      <c r="C56">
+        <v>0.1671331464779811</v>
+      </c>
+      <c r="D56">
+        <v>-0.06167542480211725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00903090968398995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0196347146560906</v>
+      </c>
+      <c r="C58">
+        <v>0.09963399666551462</v>
+      </c>
+      <c r="D58">
+        <v>-0.08250408237645504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009300456397952973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009027212608614735</v>
+      </c>
+      <c r="C59">
+        <v>0.1780093768026113</v>
+      </c>
+      <c r="D59">
+        <v>0.267479344485436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008950240073368421</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02288110553045074</v>
+      </c>
+      <c r="C60">
+        <v>0.2210491479081716</v>
+      </c>
+      <c r="D60">
+        <v>-0.03302881253938435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01798857383721697</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002025938254057953</v>
+      </c>
+      <c r="C61">
+        <v>0.09289390168021294</v>
+      </c>
+      <c r="D61">
+        <v>-0.06576996244972491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1889356285604009</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449797719935139</v>
+      </c>
+      <c r="C62">
+        <v>0.068100778321074</v>
+      </c>
+      <c r="D62">
+        <v>-0.05435745006120743</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003019520560396212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006552349949303294</v>
+      </c>
+      <c r="C63">
+        <v>0.06027246495629932</v>
+      </c>
+      <c r="D63">
+        <v>-0.02023084808332341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006326387412725776</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01559542945407657</v>
+      </c>
+      <c r="C64">
+        <v>0.09639791934701888</v>
+      </c>
+      <c r="D64">
+        <v>-0.07115039883982868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0005205207451312617</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01729820993372966</v>
+      </c>
+      <c r="C65">
+        <v>0.1100737478083908</v>
+      </c>
+      <c r="D65">
+        <v>-0.03952648217110057</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01226824389087266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01217781133563684</v>
+      </c>
+      <c r="C66">
+        <v>0.1467510278327197</v>
+      </c>
+      <c r="D66">
+        <v>-0.1250156516411464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001780262846315879</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01511886394177453</v>
+      </c>
+      <c r="C67">
+        <v>0.06409376387951822</v>
+      </c>
+      <c r="D67">
+        <v>-0.04276078404044956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009144785623168289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001708589897841087</v>
+      </c>
+      <c r="C68">
+        <v>0.1217282312941732</v>
+      </c>
+      <c r="D68">
+        <v>0.2665471825611205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003374145217649691</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005191347610550932</v>
+      </c>
+      <c r="C69">
+        <v>0.04557834551599677</v>
+      </c>
+      <c r="D69">
+        <v>-0.04491611473135507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001258789240158774</v>
+      </c>
+      <c r="C70">
+        <v>0.001594287054561787</v>
+      </c>
+      <c r="D70">
+        <v>-0.001335906792726779</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004437973269365116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006392889218838148</v>
+      </c>
+      <c r="C71">
+        <v>0.1253209237594091</v>
+      </c>
+      <c r="D71">
+        <v>0.2799715524548561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008603842222411692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01538039459783012</v>
+      </c>
+      <c r="C72">
+        <v>0.1467431455743128</v>
+      </c>
+      <c r="D72">
+        <v>-0.03765134667103241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01435437860591877</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03093971311902266</v>
+      </c>
+      <c r="C73">
+        <v>0.2829579355025153</v>
+      </c>
+      <c r="D73">
+        <v>-0.05486278393045257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005853132065907598</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001868026604299204</v>
+      </c>
+      <c r="C74">
+        <v>0.101319993538618</v>
+      </c>
+      <c r="D74">
+        <v>-0.04811921550594313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006729459694602515</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01040483514542642</v>
+      </c>
+      <c r="C75">
+        <v>0.1303261487836276</v>
+      </c>
+      <c r="D75">
+        <v>-0.04741086613007748</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01048563991461111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02111559255574874</v>
+      </c>
+      <c r="C76">
+        <v>0.1408898064033965</v>
+      </c>
+      <c r="D76">
+        <v>-0.07725760514008814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.00851200506259305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02208887605296718</v>
+      </c>
+      <c r="C77">
+        <v>0.1172400609357236</v>
+      </c>
+      <c r="D77">
+        <v>-0.1185872432703358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0006672524899551905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0146099161765127</v>
+      </c>
+      <c r="C78">
+        <v>0.08940441064871964</v>
+      </c>
+      <c r="D78">
+        <v>-0.06842910709918829</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02627367393437696</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03653414615420104</v>
+      </c>
+      <c r="C79">
+        <v>0.1520941736057471</v>
+      </c>
+      <c r="D79">
+        <v>-0.04472574497718702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003267012819109214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01078137690707964</v>
+      </c>
+      <c r="C80">
+        <v>0.04382142945103976</v>
+      </c>
+      <c r="D80">
+        <v>-0.0283596786114033</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>6.071668152516509e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01448040202178366</v>
+      </c>
+      <c r="C81">
+        <v>0.1180811130794857</v>
+      </c>
+      <c r="D81">
+        <v>-0.06642394147053446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006182075313479325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01860705118230981</v>
+      </c>
+      <c r="C82">
+        <v>0.1379442632651915</v>
+      </c>
+      <c r="D82">
+        <v>-0.05462670454923139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008569227985506588</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009654245039930598</v>
+      </c>
+      <c r="C83">
+        <v>0.05203954840822998</v>
+      </c>
+      <c r="D83">
+        <v>-0.04880286590823788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01356962051240546</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01236743123732381</v>
+      </c>
+      <c r="C84">
+        <v>0.03098071328492649</v>
+      </c>
+      <c r="D84">
+        <v>-0.003241586517626661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01632556392652695</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0283639398917674</v>
+      </c>
+      <c r="C85">
+        <v>0.1270107547850231</v>
+      </c>
+      <c r="D85">
+        <v>-0.06072052974178106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003671863694530313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004768076715996774</v>
+      </c>
+      <c r="C86">
+        <v>0.0475074083885969</v>
+      </c>
+      <c r="D86">
+        <v>-0.0223915431188554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008191298181801381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01001438366555269</v>
+      </c>
+      <c r="C87">
+        <v>0.1229843793086107</v>
+      </c>
+      <c r="D87">
+        <v>-0.0815596203935159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01476903144304013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003054051989502331</v>
+      </c>
+      <c r="C88">
+        <v>0.07304466280384792</v>
+      </c>
+      <c r="D88">
+        <v>-0.01741425828661343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0154611193161935</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001652668362741354</v>
+      </c>
+      <c r="C89">
+        <v>0.1755959643349604</v>
+      </c>
+      <c r="D89">
+        <v>0.3270470013468087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002438041352217099</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007851109190984959</v>
+      </c>
+      <c r="C90">
+        <v>0.158570803570328</v>
+      </c>
+      <c r="D90">
+        <v>0.3160344161039665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005739097068382259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009888308324450003</v>
+      </c>
+      <c r="C91">
+        <v>0.1017937025558654</v>
+      </c>
+      <c r="D91">
+        <v>-0.0240041903760457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01844154857667454</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001270041300195392</v>
+      </c>
+      <c r="C92">
+        <v>0.1637153023482887</v>
+      </c>
+      <c r="D92">
+        <v>0.3129076037418528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001919849233927592</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005311842086574091</v>
+      </c>
+      <c r="C93">
+        <v>0.1398890370906169</v>
+      </c>
+      <c r="D93">
+        <v>0.3080574538159447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001072762160010617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02177024874901455</v>
+      </c>
+      <c r="C94">
+        <v>0.1552303137138887</v>
+      </c>
+      <c r="D94">
+        <v>-0.03797231842748306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006925061220481129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01652016712331003</v>
+      </c>
+      <c r="C95">
+        <v>0.1201466291199589</v>
+      </c>
+      <c r="D95">
+        <v>-0.0674731259599243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004615757284575122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03256394686670964</v>
+      </c>
+      <c r="C97">
+        <v>0.1654185608580389</v>
+      </c>
+      <c r="D97">
+        <v>-0.05288145795689992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01015071464632639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03575997460122691</v>
+      </c>
+      <c r="C98">
+        <v>0.2574104924770361</v>
+      </c>
+      <c r="D98">
+        <v>-0.05127194877629537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792093541889999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9826123247656818</v>
+      </c>
+      <c r="C99">
+        <v>-0.1068423626885278</v>
+      </c>
+      <c r="D99">
+        <v>0.03699276003956416</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001561802337568635</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003576201359046017</v>
+      </c>
+      <c r="C101">
+        <v>0.05051610253909104</v>
+      </c>
+      <c r="D101">
+        <v>-0.02164591152663705</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
